--- a/src/test/java/excel/pojoTest.xlsx
+++ b/src/test/java/excel/pojoTest.xlsx
@@ -133,7 +133,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
     </row>
@@ -158,7 +158,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
     </row>
@@ -183,7 +183,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
     </row>
@@ -208,7 +208,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
     </row>
@@ -233,7 +233,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
     </row>
@@ -258,7 +258,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
     </row>
@@ -283,7 +283,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
     </row>
@@ -308,7 +308,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
     </row>
@@ -333,7 +333,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
     </row>
@@ -358,7 +358,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
     </row>
